--- a/biology/Biochimie/Acylglycérol/Acylglycérol.xlsx
+++ b/biology/Biochimie/Acylglycérol/Acylglycérol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acylglyc%C3%A9rol</t>
+          <t>Acylglycérol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acylglycérols, également appelés glycérides ou glycérolipides, sont des esters d'acides gras et de glycérol. Ils sont majoritairement présents dans le tissu adipeux (90 %). Ils font partie des lipides.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acylglyc%C3%A9rol</t>
+          <t>Acylglycérol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fig 1 : β-monoglycéride.
@@ -519,12 +533,117 @@
 			Fig 3 : α,α'-diglycéride.
 			Fig 4 : α,β-diglycéride.
 			Fig 5 : triglycéride.
-Monoacylglycérols (monoglycérides)
-Selon que la liaison avec l'acide gras soit celle du milieu (sur le carbone β) ou une périphérique (sur le carbone α ou α'), il s'agit respectivement d'un β-monoglycéride (figure 1) ou d'un α-monoglycéride (figure 2).
-Diacylglycérols (diglycérides)
-Les figures 3 et 4 présentent les deux types de diglycérides. Si les deux acides gras sont identiques (R1 = R2), c'est un diglycéride homogène. Dans le cas contraire, il s'agit d'un diglycéride hétérogène.
-Triacylglycérols (triglycérides)
-Les figures 5 et 6 présentent un triglycéride (TG). Si les trois acides gras sont identiques, il s'agit d'un triglycéride homogène. Sinon, c'est un triglycéride mixte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acylglycérol</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acylglyc%C3%A9rol</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Monoacylglycérols (monoglycérides)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon que la liaison avec l'acide gras soit celle du milieu (sur le carbone β) ou une périphérique (sur le carbone α ou α'), il s'agit respectivement d'un β-monoglycéride (figure 1) ou d'un α-monoglycéride (figure 2).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acylglycérol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acylglyc%C3%A9rol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diacylglycérols (diglycérides)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les figures 3 et 4 présentent les deux types de diglycérides. Si les deux acides gras sont identiques (R1 = R2), c'est un diglycéride homogène. Dans le cas contraire, il s'agit d'un diglycéride hétérogène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acylglycérol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acylglyc%C3%A9rol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Triacylglycérols (triglycérides)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les figures 5 et 6 présentent un triglycéride (TG). Si les trois acides gras sont identiques, il s'agit d'un triglycéride homogène. Sinon, c'est un triglycéride mixte.
 La formule semi-développée des triacylglycérols (TAG) est :
                         C
                           H
@@ -562,49 +681,158 @@
                             3
     {\displaystyle {\begin{array}{lr}{\rm {{\color {Green}CH_{2}-O}-CO-{\color {Orange}R_{1}}}}\\{\color {Green}|}\\{\rm {{\color {Green}CH-O}-CO-{\color {Orange}R_{2}}}}\\{\color {Green}|}\\{\rm {{\color {Green}CH_{2}-O}-CO-{\color {Orange}R_{3}}}}\\\end{array}}}
 avec R1CO, R2CO et R3CO, trois chaînes acyle.
-Phosphoacylglycérols
-Les phosphoacylglycérols sont des esters d'acides gras, de phosphate et de diacylglycérol. Ils sont également appelés phosphoglycérides. Bien qu'ils correspondent à la définition des acylglycérols, ils sont généralement distingués de ceux-ci pour des raisons pratiques et historiques.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Acylglyc%C3%A9rol</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acylglycérol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acylglyc%C3%A9rol</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phosphoacylglycérols</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les phosphoacylglycérols sont des esters d'acides gras, de phosphate et de diacylglycérol. Ils sont également appelés phosphoglycérides. Bien qu'ils correspondent à la définition des acylglycérols, ils sont généralement distingués de ceux-ci pour des raisons pratiques et historiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acylglycérol</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acylglyc%C3%A9rol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Propriétés chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrolyse
-L'hydrolyse acide (en présence d'acide chlorhydrique) ou enzymatique en présence de lipase conduit à deux fractions :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hydrolyse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'hydrolyse acide (en présence d'acide chlorhydrique) ou enzymatique en présence de lipase conduit à deux fractions :
 une hydrosoluble : le glycérol ;
-l'autre non soluble dans l'eau : des acides gras.
-Saponification
-La saponification est faite à chaud en présence d'une base forte, elle conduit à la formation de savons et de glycérol :
+l'autre non soluble dans l'eau : des acides gras.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acylglycérol</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acylglyc%C3%A9rol</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Propriétés chimiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saponification</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saponification est faite à chaud en présence d'une base forte, elle conduit à la formation de savons et de glycérol :
 en présence de soude (NaOH), il y a formation de savon blanc ;
 en présence de potasse (KOH), il y a formation de savon noir.
 Cette réaction permet de mesurer l'indice de saponification.
-Triacylglycérols ou triglycérides
-Ils peuvent être simples ou mixtes selon la nature de leurs acides gras (AG).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acylglycérol</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acylglyc%C3%A9rol</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Propriétés chimiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Triacylglycérols ou triglycérides</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent être simples ou mixtes selon la nature de leurs acides gras (AG).
 Les TAG correspondent à 90 % des lipides alimentaires.
 Il y a action d'une lipase gastrique dans 30 % des cas.
 L'isomérase transforme la liaison ester secondaire en liaison ester primaire pour permettre l'action de la lipase pancréatique.
